--- a/biology/Écologie/Zone_rouge_(séquelles_de_guerre)/Zone_rouge_(séquelles_de_guerre).xlsx
+++ b/biology/Écologie/Zone_rouge_(séquelles_de_guerre)/Zone_rouge_(séquelles_de_guerre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Zone rouge est le nom donné en France à environ 120 000 hectares de champ de bataille où, à cause de dégâts physiques majeurs sur le milieu pendant la Première Guerre mondiale et en raison de la présence de milliers de cadavres et de millions de munitions non explosées, certaines activités ont été provisoirement ou définitivement interdites par la loi. Alors que la période du tout début de la reconstruction est relativement pauvre en archives[1], la seule existence de ce zonage permet d’appréhender la difficulté et les enjeux de la reconstruction.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zone rouge est le nom donné en France à environ 120 000 hectares de champ de bataille où, à cause de dégâts physiques majeurs sur le milieu pendant la Première Guerre mondiale et en raison de la présence de milliers de cadavres et de millions de munitions non explosées, certaines activités ont été provisoirement ou définitivement interdites par la loi. Alors que la période du tout début de la reconstruction est relativement pauvre en archives, la seule existence de ce zonage permet d’appréhender la difficulté et les enjeux de la reconstruction.
 Le traitement de la zone rouge a nécessité de :
 exhumer des milliers de cadavres et de restes humains, qui furent — quand leur état le permettait — transportés dans les cimetières, nécropoles ou ossuaires ;
 traiter les cadavres d’animaux qui contaminaient les eaux de nappes et de surface ; c’est à cette époque qu’a été étendue la chloration de l’eau par chlore gazeux, alors dite « verdunisation », technique qui avait été expérimentée à Paris en 1911 ; on invente aussi les premières techniques de dépollution et restauration de sols à grande échelle et localement d’inertage, sans encore les nommer ainsi ;
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Première Guerre mondiale ayant inauguré l’utilisation massive de munitions industriellement produites, elle a laissé en France, en Belgique et en Allemagne de graves séquelles physiques, chimiques et écotoxicologiques. En France, où se sont concentrés les combats, la destruction était quasi totale sur 7 % du territoire métropolitain. Ces dégâts ont induit des réformes importantes, notamment du droit de la guerre.
 Dès 1914, l’État français, par une décision votée à l'unanimité, s’était engagé à dédommager intégralement ceux qui subiraient des dommages de guerre (circulaire du 27 octobre 1914). Cinq mois après l’armistice de 1918, après de longues discussions entre sénateurs et députés, la loi du 17 avril 1919 sur les dommages de guerre a autorisé l'État à préempter et acheter les sols qui semblaient ne pas pouvoir être rapidement ou définitivement réhabilités. Le gouvernement Clemenceau a demandé aux préfets, via la circulaire no 983 du 10 juin 1921 relative au mode de rachat et d'utilisation de la zone rouge, d'exproprier et dédommager les propriétaires ou ayants droit. Ceci a été fait sous le contrôle des préfets, avec les services intéressés, dont la Direction des services agricoles, la Conservation des Forêts, le Génie rural, etc.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,57 +566,54 @@
           <t>Classification, révisée en plusieurs étapes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un premier temps, le zonage a été établi sur cartes, selon l’importance des impacts estimés.
-Les territoires victimes de dommages ont été classés en 3 catégories, dites zones rouges, jaunes et vertes en raison des couleurs les représentant sur la carte. Après avoir dressé des cartographies départementales zonales, avec les maires, les survivants ou prisonniers fraîchement rentrés dans les villages, les services de l'État ont décidé des « modes d'utilisation » de la zone rouge, portés sur des plans directeurs à 1/10 000[2].
+Les territoires victimes de dommages ont été classés en 3 catégories, dites zones rouges, jaunes et vertes en raison des couleurs les représentant sur la carte. Après avoir dressé des cartographies départementales zonales, avec les maires, les survivants ou prisonniers fraîchement rentrés dans les villages, les services de l'État ont décidé des « modes d'utilisation » de la zone rouge, portés sur des plans directeurs à 1/10 000.
 La carte a ensuite été révisée et modifiée ; entre 1918 et 1923, certaines zones ont augmenté alors que d'autres diminuaient.
-Zones rouges, vertes et jaunes
-Fin 1918, 4 000 communes sont dévastées ou dégradées sur 3 337 000 ha dans dix départements[3].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification, révisée en plusieurs étapes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Zones rouges, vertes et jaunes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fin 1918, 4 000 communes sont dévastées ou dégradées sur 3 337 000 ha dans dix départements.
 En 1919, dans le cadre de la reconstruction le « ministère des Régions libérées », en lien avec le ministère des Armées, a produit une cartographie en trois niveaux de séquelles, représentés par trois couleurs.
 Zones vertes : caractérisées par des dégâts moyens, ce sont les zones de passage ou de stationnement des armées, avec d’éventuels restes de dépôts de munitions, de matériels, casemates ou déchets divers.
 Zones jaunes : ce sont les zones brièvement ou ponctuellement touchées par les combats, généralement derrière les lignes de front ou éloignées, où les infrastructures routières sont à peu près fonctionnelles après l’armistice, malgré les tranchées, les trous d’obus ou des sols localement criblés de projectiles « souvent non éclatés ».
-Zones rouges : ce sont les zones correspondant aux lignes de front des armées où sont concentrés les dégâts majeurs. Les sols y sont bouleversés et les infrastructures routières, ferroviaires, industrielles, ainsi que ponts, ports et canaux, y sont généralement totalement détruits (la dénomination de zone rouge n’a donc pas pour origine principale le sang versé, ni le rouge des coquelicots qui poussaient sur la terre labourée et cent fois retournée par les obus, elle les évoque néanmoins inévitablement dans l’esprit de l’époque).
-Processus continu
-Les zones jaunes et vertes ont été nettoyées, déblayées de la plus grande partie des militaria et ruines de guerre, et rendues à la vie civile et aux cultures. Il a été tenu compte des dangers d'explosion et de fuites de munitions chimiques, mais pratiquement jamais des dangers liés aux contaminations multiples. À titre d'exemple, on a largement et très tôt récupéré le cuivre des munitions, mais laissé les millions de billes de plomb éparpillées par les obus shrapnels. La composition du sol est donc modifiée, au regard des contaminants chimiques soumis à des normes, pour 10 000 ans au moins (le plomb, le mercure et le zinc ne sont pas biodégradables). Ceci n’exclut pas que des productions alimentaires respectant les normes en vigueur puissent être faites, mais le droit français et européen demande que les producteurs, avec l'accompagnement nécessaire, soient organisés pour prouver la conformité par des faits (analyses, certifications) de manière à pouvoir assurer la sécurité et l’information des consommateurs ; ce qui ne semble pas à ce jour avoir été fait ; une des explications pouvant être la pratique systématique du déni, en dépit d'engagements européens en matière d'accès à l'information en matière d'environnement[4][réf. nécessaire].
-Certaines parties de la zone rouge n’ont jamais pu être nettoyées, ou ne l’ont été que très superficiellement. Elles ont été boisées avec parfois une mise en interdit pour des raisons de danger, ou comme site de mémoire (près de Verdun ou de Vimy). Ailleurs, certaines parcelles ont été rapidement rendues à la culture, voire à l’élevage ; par exemple : la première porcherie industrielle de France, encore expérimentale est construite en 1928-1929 sur le « Domaine de Molleville », à Consenvoye, près de Verdun, sur 25 ha sur un sol auparavant criblé de trous d’obus, après traitement du sol par amendements chimiques (déchets industriels en réalité)[5]. Ce lieu qui a produit une partie de l'élite de la génétique porcine de l'époque, donc de la « reconstruction », est un bon exemple de la non-prise en compte à l'époque des problèmes de contamination. Cette exploitation est aujourd'hui devenue une ferme céréalière.
-Des parcelles ont été rendues à la culture jusqu’en 1976, au moins superficiellement déminées et nettoyées. Chaque année, des centaines de milliers d'obus et autres munitions sont encore mis au jour, par hasard, lors des labours ou de travaux, et le seront longtemps encore (durant 700 ans environ au rythme actuel de déminage, selon la Sécurité civile). Des sites du patrimoine militaire autrefois situés en zone rouge doivent encore être plus ou moins superficiellement dépollués avant d’être rendus ou vendus à des collectivités ou ouvertes au public telle une partie du site du mémorial de Vimy.
-Le périmètre de la zone rouge a été fortement révisé dans les cinq ans qui ont suivi l'armistice, parfois à la hausse, et parfois à la baisse et sur des critères qui ont varié selon les régions et les pressions de la coterie agricole. Cette dernière, dès 1918 pressait en effet la chambre des députés de sortir les bonnes terres agricoles du Pas-de-Calais de la zone rouge pour être autorisée à les remettre en culture[6]. Ainsi la zone rouge a-t-elle grandi dans le département de la Meuse (de 12 000 ha à 19 000 ha de 1919 à 1923) alors qu'elle diminuait fortement dans le Pas-de-Calais (de 26 000 ha en 1919 à seulement 472 ha en 1923)[6] où la pression des agriculteurs pour récupérer la terre était plus forte.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Séquelles environnementales persistantes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour l’œil averti, un premier indice de pollution est l'abondance de billes de plomb (parfois en cours de délitement). Ces billes ont été projetées par les obus shrapnels dans les sols ou à leur surface. S'y ajoute la présence relictuelle de millions de balles, d’obus chimiques ou classiques, et d’autres militaria (restes de guerre) toxiques, plus discrète mais écotoxicologiquement également préoccupante.
-Les munitions ont été mieux récupérées en surface, notamment pour répondre aux besoins en métaux générés par la reconstruction mais — le détecteur de métaux n'ayant été inventé et commercialisé que dans les années 1930 — la plupart des munitions conventionnelles ou chimiques enfouies ou immergées dans les lacs ou mares le sont restées, soumises à une lente et inéluctable corrosion.
-Très localement des pollutions majeures subsistent, en Belgique, près d'Ypres en Flandre belge[7],[8] ou en France comme sur le site meusien (en plaine de Woëvre) dit « place à gaz ». Ce site récemment « redécouvert » est en cours d’étude et en cours de traitement depuis 2004. Plus de 99 % des espèces animales du sol et des végétaux continuent à mourir depuis 80 ans en raison de taux extrêmement élevés de métaux lourds. Après 80 ans de lessivage vers les nappes, l'arsenic y constitue encore jusqu'à 17 % du poids du sol, avec des taux mille à dix mille fois plus élevés que ceux habituellement relevés dans les zones rouges[7]. Il provient d'arsines[9] issues de munitions chimiques et incinéré sur place. Environ 200 000 obus chimiques y auraient été démontés et « traités » dans les années 1920 par un ferrailleur habilité par le ministère de la Guerre[7],[10].
-Ailleurs, le couvert forestier s’est facilement reconstitué, les racines pénétrant facilement les sols disloqués et retournés par les obus, après un stade pionnier de germination des messicoles (bleuet, coquelicot, matricaire). Certaines plantes de la flore obsidionale se spécialisent dans ce type de conditions de vie. Dans les zones agricoles ouvertes (prairies, bocage) la diversité en plantes, insectes, animaux et champignons semble anormalement basse. Quelques indices laissent craindre que les champignons y soient souvent contaminés par les métaux lourds, de même qu’en forêt. Des taux de plomb anormalement élevés ont été mesurés dans les foies des sangliers aux environs de Verdun, plus élevés qu’ailleurs dans la région, elle-même plus touchée que d’autres. Le bois tiré des arbres lui-même pourrait avoir absorbé et stocké certains composés toxiques. Des études sur la mobilité des résidus d'arsines ont été entreprises[11] à partir de 4 zones de démantèlement d'obus hautement contaminées par l'arsenic (de 1937 à 72 820 mg par kg de sol tamisé) mais aussi par le zinc (jusqu'à 90 190 mg/kg), le cuivre (jusqu'à 9 113 mg/kg) et le plomb (jusqu'à 5 777 mg/kg) sur des sites où par chance le sol présentait une teneur élevée en argile et où le bois qui a servi a brûler l'arsine a laissé une grande quantité de charbon de bois sur lequel les métaux ont pu s'adsorber et donc moins circuler dans l'environnement.
-</t>
+Zones rouges : ce sont les zones correspondant aux lignes de front des armées où sont concentrés les dégâts majeurs. Les sols y sont bouleversés et les infrastructures routières, ferroviaires, industrielles, ainsi que ponts, ports et canaux, y sont généralement totalement détruits (la dénomination de zone rouge n’a donc pas pour origine principale le sang versé, ni le rouge des coquelicots qui poussaient sur la terre labourée et cent fois retournée par les obus, elle les évoque néanmoins inévitablement dans l’esprit de l’époque).</t>
         </is>
       </c>
     </row>
@@ -612,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,10 +638,88 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification, révisée en plusieurs étapes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Processus continu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les zones jaunes et vertes ont été nettoyées, déblayées de la plus grande partie des militaria et ruines de guerre, et rendues à la vie civile et aux cultures. Il a été tenu compte des dangers d'explosion et de fuites de munitions chimiques, mais pratiquement jamais des dangers liés aux contaminations multiples. À titre d'exemple, on a largement et très tôt récupéré le cuivre des munitions, mais laissé les millions de billes de plomb éparpillées par les obus shrapnels. La composition du sol est donc modifiée, au regard des contaminants chimiques soumis à des normes, pour 10 000 ans au moins (le plomb, le mercure et le zinc ne sont pas biodégradables). Ceci n’exclut pas que des productions alimentaires respectant les normes en vigueur puissent être faites, mais le droit français et européen demande que les producteurs, avec l'accompagnement nécessaire, soient organisés pour prouver la conformité par des faits (analyses, certifications) de manière à pouvoir assurer la sécurité et l’information des consommateurs ; ce qui ne semble pas à ce jour avoir été fait ; une des explications pouvant être la pratique systématique du déni, en dépit d'engagements européens en matière d'accès à l'information en matière d'environnement[réf. nécessaire].
+Certaines parties de la zone rouge n’ont jamais pu être nettoyées, ou ne l’ont été que très superficiellement. Elles ont été boisées avec parfois une mise en interdit pour des raisons de danger, ou comme site de mémoire (près de Verdun ou de Vimy). Ailleurs, certaines parcelles ont été rapidement rendues à la culture, voire à l’élevage ; par exemple : la première porcherie industrielle de France, encore expérimentale est construite en 1928-1929 sur le « Domaine de Molleville », à Consenvoye, près de Verdun, sur 25 ha sur un sol auparavant criblé de trous d’obus, après traitement du sol par amendements chimiques (déchets industriels en réalité). Ce lieu qui a produit une partie de l'élite de la génétique porcine de l'époque, donc de la « reconstruction », est un bon exemple de la non-prise en compte à l'époque des problèmes de contamination. Cette exploitation est aujourd'hui devenue une ferme céréalière.
+Des parcelles ont été rendues à la culture jusqu’en 1976, au moins superficiellement déminées et nettoyées. Chaque année, des centaines de milliers d'obus et autres munitions sont encore mis au jour, par hasard, lors des labours ou de travaux, et le seront longtemps encore (durant 700 ans environ au rythme actuel de déminage, selon la Sécurité civile). Des sites du patrimoine militaire autrefois situés en zone rouge doivent encore être plus ou moins superficiellement dépollués avant d’être rendus ou vendus à des collectivités ou ouvertes au public telle une partie du site du mémorial de Vimy.
+Le périmètre de la zone rouge a été fortement révisé dans les cinq ans qui ont suivi l'armistice, parfois à la hausse, et parfois à la baisse et sur des critères qui ont varié selon les régions et les pressions de la coterie agricole. Cette dernière, dès 1918 pressait en effet la chambre des députés de sortir les bonnes terres agricoles du Pas-de-Calais de la zone rouge pour être autorisée à les remettre en culture. Ainsi la zone rouge a-t-elle grandi dans le département de la Meuse (de 12 000 ha à 19 000 ha de 1919 à 1923) alors qu'elle diminuait fortement dans le Pas-de-Calais (de 26 000 ha en 1919 à seulement 472 ha en 1923) où la pression des agriculteurs pour récupérer la terre était plus forte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Séquelles environnementales persistantes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour l’œil averti, un premier indice de pollution est l'abondance de billes de plomb (parfois en cours de délitement). Ces billes ont été projetées par les obus shrapnels dans les sols ou à leur surface. S'y ajoute la présence relictuelle de millions de balles, d’obus chimiques ou classiques, et d’autres militaria (restes de guerre) toxiques, plus discrète mais écotoxicologiquement également préoccupante.
+Les munitions ont été mieux récupérées en surface, notamment pour répondre aux besoins en métaux générés par la reconstruction mais — le détecteur de métaux n'ayant été inventé et commercialisé que dans les années 1930 — la plupart des munitions conventionnelles ou chimiques enfouies ou immergées dans les lacs ou mares le sont restées, soumises à une lente et inéluctable corrosion.
+Très localement des pollutions majeures subsistent, en Belgique, près d'Ypres en Flandre belge, ou en France comme sur le site meusien (en plaine de Woëvre) dit « place à gaz ». Ce site récemment « redécouvert » est en cours d’étude et en cours de traitement depuis 2004. Plus de 99 % des espèces animales du sol et des végétaux continuent à mourir depuis 80 ans en raison de taux extrêmement élevés de métaux lourds. Après 80 ans de lessivage vers les nappes, l'arsenic y constitue encore jusqu'à 17 % du poids du sol, avec des taux mille à dix mille fois plus élevés que ceux habituellement relevés dans les zones rouges. Il provient d'arsines issues de munitions chimiques et incinéré sur place. Environ 200 000 obus chimiques y auraient été démontés et « traités » dans les années 1920 par un ferrailleur habilité par le ministère de la Guerre,.
+Ailleurs, le couvert forestier s’est facilement reconstitué, les racines pénétrant facilement les sols disloqués et retournés par les obus, après un stade pionnier de germination des messicoles (bleuet, coquelicot, matricaire). Certaines plantes de la flore obsidionale se spécialisent dans ce type de conditions de vie. Dans les zones agricoles ouvertes (prairies, bocage) la diversité en plantes, insectes, animaux et champignons semble anormalement basse. Quelques indices laissent craindre que les champignons y soient souvent contaminés par les métaux lourds, de même qu’en forêt. Des taux de plomb anormalement élevés ont été mesurés dans les foies des sangliers aux environs de Verdun, plus élevés qu’ailleurs dans la région, elle-même plus touchée que d’autres. Le bois tiré des arbres lui-même pourrait avoir absorbé et stocké certains composés toxiques. Des études sur la mobilité des résidus d'arsines ont été entreprises à partir de 4 zones de démantèlement d'obus hautement contaminées par l'arsenic (de 1937 à 72 820 mg par kg de sol tamisé) mais aussi par le zinc (jusqu'à 90 190 mg/kg), le cuivre (jusqu'à 9 113 mg/kg) et le plomb (jusqu'à 5 777 mg/kg) sur des sites où par chance le sol présentait une teneur élevée en argile et où le bois qui a servi a brûler l'arsine a laissé une grande quantité de charbon de bois sur lequel les métaux ont pu s'adsorber et donc moins circuler dans l'environnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Activités autorisées en zone rouge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Plans directeurs départementaux indiquent les zones susceptibles d'être reboisées (teinte verte), celles pouvant être remise en état de culture par les moyens ordinaires et par des moyens mécaniques puissants (teinte bistre) et enfin la zone à conserver comme vestiges de guerre (teinte jaune). Des rapports de la Conservation des Forêts et de la Direction des Services agricoles détaillent et justifient ces projets.
 Seules quelques activités sont autorisées en zone rouge :
@@ -645,31 +734,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Treize départements étaient classés (pour tout ou partie) en zone rouge en 1919 :
 Nord,
@@ -688,46 +779,188 @@
 Bas-Rhin.
 La région industrielle du Nord-Pas-de-Calais était dévastée, classée en 1919 en zone rouge ou jaune pour environ les deux tiers de sa surface.
 Plus à l’est, le secteur de Verdun qui, sur une surface relativement restreinte, aurait reçu plus de  60 millions d’obus dont au moins  15 millions n’ont pas explosé, a été classé en « zone rouge » (d’où la présence de massifs forestiers importants). À raison de 2 g de fulminate de mercure par amorce (1 g de mercure pur) et de deux amorces par obus + douille, on peut estimer que 90 tonnes de mercure ont pollué les masses d’air et le sol et l’eau sur le seul secteur de la bataille de Verdun.
-Aisne
-Dans l'Aisne, les commissions cantonales classent plus de 19 000 ha de terres en zone rouge en 1919. Ces terrains ravagés par les combats sont situés sur l'ensemble du Chemin des Dames, mais aussi dans le Soissonnais et le Vermandois. En raison de leurs potentialités agricoles, ces terres sont progressivement remises en culture. En 1927, la zone rouge de l'Aisne se stabilise à 717 ha à l'est du Chemin des Dames (plateau de Californie)[12].
-Somme
-Initialement, l'État avait prévu de constituer une zone rouge de 28 000 ha à laisser en friche ou à planter d'arbres. La volonté des propriétaires de pouvoir reconstituer leur exploitation agricole fit plier le gouvernement. En 1922, la zone rouge de la Somme fut réduite à 4 000 ha, à 1 000 ha en 1924 pour finalement atteindre, en 1927, 400 ha sur les communes de Frise, Beaumont-Hamel et Thiepval[13].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Aisne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'Aisne, les commissions cantonales classent plus de 19 000 ha de terres en zone rouge en 1919. Ces terrains ravagés par les combats sont situés sur l'ensemble du Chemin des Dames, mais aussi dans le Soissonnais et le Vermandois. En raison de leurs potentialités agricoles, ces terres sont progressivement remises en culture. En 1927, la zone rouge de l'Aisne se stabilise à 717 ha à l'est du Chemin des Dames (plateau de Californie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Somme</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement, l'État avait prévu de constituer une zone rouge de 28 000 ha à laisser en friche ou à planter d'arbres. La volonté des propriétaires de pouvoir reconstituer leur exploitation agricole fit plier le gouvernement. En 1922, la zone rouge de la Somme fut réduite à 4 000 ha, à 1 000 ha en 1924 pour finalement atteindre, en 1927, 400 ha sur les communes de Frise, Beaumont-Hamel et Thiepval.
 De nombreux obus trouvés après 1945 par les démineurs ont été détruits par pétardage en baie de Somme, dans l’estuaire.
-Pas-de-Calais
-À Vimy, des obus au gaz récupérés après 1918 ont été stockés en plein air et on a pu constater qu'ils s'étaient fortement dégradés, nécessitant leur déplacement au camp de Suippes dans des camions blindés et réfrigérés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pas-de-Calais</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Vimy, des obus au gaz récupérés après 1918 ont été stockés en plein air et on a pu constater qu'ils s'étaient fortement dégradés, nécessitant leur déplacement au camp de Suippes dans des camions blindés et réfrigérés.
 Les plages furent l'objet d'un déminage en collaboration avec le ministère de guerre anglais.
-Pollution des eaux
-Les eaux de percolation et les fleuves traversant ces zones sont ou ont été très probablement modifiés dans leur composition, voire gravement pollués. Il est plausible et probable que via des bras-morts pollués lors du conflit ou comblés avec des militaria (dont des obus non explosés), les sols ainsi que les sédiments de canaux ou de fleuves (Somme, Escaut, Scarpe, Yser) soient encore localement dangereux des suites de cette guerre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Pollution des eaux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les eaux de percolation et les fleuves traversant ces zones sont ou ont été très probablement modifiés dans leur composition, voire gravement pollués. Il est plausible et probable que via des bras-morts pollués lors du conflit ou comblés avec des militaria (dont des obus non explosés), les sols ainsi que les sédiments de canaux ou de fleuves (Somme, Escaut, Scarpe, Yser) soient encore localement dangereux des suites de cette guerre.
 La Champagne et le Nord-Pas-de-Calais furent le théâtre d’occupations et de violents combats en 1814, 1815, 1870-1871, 1914-1918 et 1940 et 1944 où cependant les armes chimiques n'ont pas ou très peu été utilisées en dépit de stocks très importants accumulés par les belligérants (ypérite, phosgène, etc.) Il semble que les Allemands auraient pu avoir récupéré une partie des munitions toxiques produites en France pendant  20 ans, entre 1919 et 1939, ou que des munitions aient rapidement été cachées pour ne pas tomber aux mains de l’ennemi.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>La reconstruction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la zone rouge, la reconstruction doit faire face aux bouleversements du sol, à la présence de cavités (tunnels, sapes…), de projectiles non éclatés, au manque d’argent, de moyens et de main-d’œuvre valide ou disponible. Le premier travail consiste à dégager les routes et à combler les marmites et trous d'obus. Les cadavres sont présents jusqu’à plusieurs mètres de profondeur dans les sols. Le désobusage et une remise en état y auraient nécessité bien plus d’argent que la valeur foncière des sols, dont certains seront longtemps inaptes à l’agriculture. C’est ce qui a justifié leur achat par l’État.
 Un tourisme de mémoire s’est spontanément constitué dès la fin 1918, les familles voulant voir le lieu des combats et souvent de la mort des leurs. Les poilus organisés en associations d’anciens combattants et de nombreuses familles ont par ailleurs souhaité que soit conservé le témoignage physique de certains lieux devenus « sacrés », dont le sol contenait un grand nombre de corps non récupérables du fait de leur profondeur ou parce que déchiquetés par les explosions.
@@ -738,31 +971,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Aménagement de la zone rouge</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Cinq ans après l’armistice, la loi du 24 avril 1923 a permis de classer les sites restés « zone rouge » en deux catégories :
 des terrains à conserver comme vestiges de guerre (fort de Douaumont, ossuaire, etc.) ;
@@ -775,31 +1010,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Reboisements, forêts de guerre</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">En Picardie, dans la Somme, de nombreux sites ont été rendus à l’agriculture ou ont été boisés (« Forêt de guerre »). Nombre de boisements y sont restés privés, encore concernés par les risques liés aux munitions non-explosées.
 À Vimy, sur les zones les plus dégradées par la guerre, une forêt a été plantée par les Français. Et sur la partie du site offert au Canada par la France (autour de l'actuel mémorial canadien de Vimy) ont été plantés des milliers de pins (un arbre par mort canadien comptabilisé). En 2005, une partie du site n’est toujours pas déminée et reste interdite au public.
@@ -809,65 +1046,69 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Superficie initiale et évolution</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Les superficies en zone rouge varient selon les départements, sur la base des estimations préfectorales des dommages.
-À titre d'exemple, dans le seul département de la Marne, la superficie totale de la zone rouge (1/7 de la superficie totale en zone rouge en France) est de : 24 556 hectares, dont 2 185 pouvaient en 1921, selon le préfet de la Marne, être remis en état de culture (pour un coût estimé de  21 851 076 = 2 350 960 francs (valeur 1921). Dans ce département, le préfet a donc proposé le boisement de 84 % de la zone rouge, estimant que la « remise en état de culture » ne pouvait être envisagée que pour les communes de : Cormicy, Loivre, Courcy, Berméricourt, Minaucourt, Massiges[14], Fontaine-en-Dormois, Gratreuil, Rouvroy, Cernay-en-Dormois, Servon, Ville-sur-Tourbe, et Vienne-le-Château. Ailleurs, il propose de boiser 20 833 hectares de zones à fortes séquelles, pour un coût de 20 833 x 150 = 3 124 950 francs, en laissant 1 538 hectares « en l'état actuel » (comme vestiges de guerre et « emplacement de villages »).
+À titre d'exemple, dans le seul département de la Marne, la superficie totale de la zone rouge (1/7 de la superficie totale en zone rouge en France) est de : 24 556 hectares, dont 2 185 pouvaient en 1921, selon le préfet de la Marne, être remis en état de culture (pour un coût estimé de  21 851 076 = 2 350 960 francs (valeur 1921). Dans ce département, le préfet a donc proposé le boisement de 84 % de la zone rouge, estimant que la « remise en état de culture » ne pouvait être envisagée que pour les communes de : Cormicy, Loivre, Courcy, Berméricourt, Minaucourt, Massiges, Fontaine-en-Dormois, Gratreuil, Rouvroy, Cernay-en-Dormois, Servon, Ville-sur-Tourbe, et Vienne-le-Château. Ailleurs, il propose de boiser 20 833 hectares de zones à fortes séquelles, pour un coût de 20 833 x 150 = 3 124 950 francs, en laissant 1 538 hectares « en l'état actuel » (comme vestiges de guerre et « emplacement de villages »).
 En France, la zone rouge — au 6 avril 1919 — couvrait 178 511 ha (du littoral des départements du Nord et du Pas-de-Calais aux Vosges). En huit ans, plus de 70 % de cette surface (soit 129 611 ha) a été « désobusée », nettoyée et peu à peu déclassée pour être rendue à l’agriculture et à l’urbanisme. La zone rouge était finalement réduite à 48 820 ha le 1er janvier 1927.
 Neuf villages détruits n’ont pas (ou très partiellement) été reconstruits. Des forêts artificielles y ont succédé aux champs, prés et pâtures.
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Séquelles liées aux munitions, aspects quantitatifs</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour la seule bataille de Verdun, on sait que plus de 120 000 tonnes de munitions ont été acheminées rien que par la « voie sacrée » les premières semaines pour le côté français (pour un acheminement de 2 000 tonnes par jour en moyenne durant cette bataille).
 Des munitions sont encore très présentes en surface : pour la préparation d’un mémorial aux soldats musulmans morts au champ de bataille, un simple déminage de surface près de l'ossuaire de Douaumont a mis au jour, durant l’hiver 2005-2006, 219 projectiles, bombes, obus ou grenades, sur seulement quelques dizaines de mètres carrés, ainsi que les ossements d'un soldat. À Vimy, près du mémorial canadien (sur une zone non déminée après 1918), ce sont  300 obus qui ont été trouvés dans les  15 premiers centimètres du sol lors d’un déminage expérimental. Le nombre et la répartition des obus non explosés (dont chimiques) enfouis à plus d’un mètre de profondeur n’ont jamais été estimés (selon les sources disponibles). On sait cependant, pour en avoir trouvé, que certains se sont enfoncés jusqu’à 15 mètres de profondeur. Les obus qui ont été collectés par centaines de milliers sur de nombreux sites de la zone rouge n’ont pas tous été démontés et vidés de leur contenu pour en récupérer les métaux. Nombre d’entre eux (chimiques et conventionnels), encore dans leurs caisses parfois, ont été transportés en train ou camion vers les ports littoraux de France pour — comme on l’a fait en Belgique et dans bien d’autres pays — être immergés. Certains ont déjà commencé à fuir, la corrosion étant plus rapide en mer que sur terre ou en eau douce.
@@ -877,31 +1118,33 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Défaut d’information</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur Internet, le biogéographe Jean-Paul Amat est cité pour ses analyses sur les polémosylvofacies reliques de la guerre de 1914-1918. Son travail, très innovant, ne concerne cependant que le bouleversement physique des sols, et non les séquelles écotoxicologiques terrestres de ce conflit. Seules quelques analyses très ponctuellement faites par l’Office national des forêts (O.N.F.) et/ou des scientifiques spécialistes des sols ou des séquelles de guerre semblent exister, et uniquement depuis les années 1990. Quelques experts et personnalités ou journalistes ont plusieurs fois alerté sur le risque éco-toxicologique pour le secteur de Verdun et de la zone rouge, sans échos ni résultats très significatifs semble-t-il.
 Il semble que les nouveaux propriétaires et usagers des sites de la zone rouge ou jaune n’aient jamais été avertis de tous les risques liés aux séquelles de guerre, dont une possible pollution différée par le mercure (bioconcentration des retombées de résidus de fulminate de mercure des millions d'obus tirés sur ce secteur, ou fuites à partir d’amorces enfouies dans le sol) et par le plomb (qui a été très utilisé en 1914-1918, notamment avec l’usage parfois intense des shrapnells).
@@ -910,31 +1153,33 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>La zone rouge aujourd’hui</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis à présent un siècle, elle se rappelle au souvenir des exploitants et de la première transformation du bois par les « bois mitraillés » qui ont perdu beaucoup de leur valeur. Les techniciens de l’ONF, les propriétaires privés et les démineurs en connaissent certains dangers. Quelques expositions commémoratives l’ont évoquée, mais sans jamais faire allusion aux séquelles écotoxicologiques pas plus que dans les Orientations régionales forestières (ORF), ou lors des groupes de travail de la Commission régionale de la forêt et des produits forestiers ou consacrés à l'éco-certification forestière. Les ORF et les directives régionales d'aménagement (DRA) de l'ONF n'invitent qu'à couper les bois mitraillés et à les remplacer par d'autres arbres. Les états des lieux dressés dans les années 2000 en application de la DCE (Directive cadre européenne sur l’eau) semblent avoir également omis d’étudier ces séquelles.
 La zone rouge est par ailleurs oubliée d’une grande partie de la population, qui s'en souvient surtout par les villages-mémoire et les sites historiques visités. Ses paysages ont pourtant été transformés en quelques décennies : les photos du début 1914 montrent autour de Verdun, de Vimy ou dans la Somme de vastes paysages d’openfield, qu’on sait déboisés depuis le haut Moyen Âge parfois. Les quelques haies et petits bois épars étaient quasi exclusivement constitués de feuillus. Vingt ans plus tard, hormis sur les sites protégés du mémorial de Verdun à Fleury, sur l’ossuaire de Douaumont, et le fort de Douaumont ainsi que sur le champ de tir militaire qui s’étendent sur un axe nord-sud, de vastes forêts domaniales, artificiellement plantées, encadrent la vallée de la Meuse. La Champagne-Ardenne, en dépit des grands défrichements de résineux des années 1950-1970 en Champagne crayeuse est passée de 566 000 ha de forêt en 1878 à 660 000 en un peu plus d'un siècle, soit un gain de près de 100 000 ha, concentrés dans l’Argonne aujourd'hui boisée à 52 % et l’Ardenne primaire boisée à 68 % (12 % de résineux dans les forêts de production). Deux Parcs naturels régionaux (PNR) ont été créés incluant les massifs boisés de la Montagne de Reims et de la Forêt d’Orient.
@@ -944,31 +1189,33 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Zone_rouge_(séquelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zone_rouge_(s%C3%A9quelles_de_guerre)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Conclusion</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce n’est qu’à la fin du XXe siècle que l’Organisation des Nations unies a commencé à évoquer et étudier les séquelles environnementales de conflits récents (guerres du Golfe, Kosovo, etc.). Pourtant, tous les conflits importants du XXe siècle, et particulièrement la première guerre industrielle et totale, celle de 1914-1918, ont profondément et pour longtemps marqué l’environnement. Cette question reste étonnamment peu étudiée par l’Histoire.
 Concernant les impacts différés, depuis les années 2000, le problème des munitions immergées en mer est évoqué, mais les aspects santé-environnement restent quasiment non abordés dans les milliers de sources relatives à la Der des Der concernant l’ancienne zone rouge.
